--- a/사이트암호.xlsx
+++ b/사이트암호.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaewon\OneDrive\문서\내것\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaewon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{3BC37DE5-8660-4A6F-A850-E309590FF7B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{740C1327-ABBE-4671-B41D-9C0B5CE0BC61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352B800F-FCAF-42A4-8FF3-AD2E2082FC8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5DA86E7-88B1-4662-8CDB-B436C8D9BC45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,10 @@
   </si>
   <si>
     <t>uipath academy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347DF633-6C91-4AB9-AD75-FB0FE962AA9F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1095,6 +1099,11 @@
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/사이트암호.xlsx
+++ b/사이트암호.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaewon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaewon\Documents\GitHub\hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352B800F-FCAF-42A4-8FF3-AD2E2082FC8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08122BD-9D11-4ECE-8C1D-1F1C09E313C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5DA86E7-88B1-4662-8CDB-B436C8D9BC45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,14 @@
   </si>
   <si>
     <t>uipath academy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -726,7 +734,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1101,9 +1109,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
